--- a/legendre_out/DATA/a1/a1IntegrandSplinePoints0.100000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandSplinePoints0.100000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>1.084407563421006e-176</v>
+        <v>1.088924203183207e-176</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>1.03754127401596e-176</v>
+        <v>1.043135465715649e-176</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>9.922786867797221e-177</v>
+        <v>9.985724299053699e-177</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>9.485936400721428e-177</v>
+        <v>9.552449223025586e-177</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>9.064599722528948e-177</v>
+        <v>9.131627694572259e-177</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>8.658515216817116e-177</v>
+        <v>8.72335797919442e-177</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>8.267421267182757e-177</v>
+        <v>8.32773834239227e-177</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>7.891056257224229e-177</v>
+        <v>7.944867049667552e-177</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>7.529158570538336e-177</v>
+        <v>7.574842366520438e-177</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>7.181466590721964e-177</v>
+        <v>7.21776255845118e-177</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>6.847718701373355e-177</v>
+        <v>6.873725890961416e-177</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>6.527653286089372e-177</v>
+        <v>6.542830629551377e-177</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>6.221008728466953e-177</v>
+        <v>6.22517503972136e-177</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>5.927523412104233e-177</v>
+        <v>5.920857386972904e-177</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>5.646935720598129e-177</v>
+        <v>5.629975936806286e-177</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>5.378984037545975e-177</v>
+        <v>5.352628954722216e-177</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>5.12340674654477e-177</v>
+        <v>5.088914706221061e-177</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>4.879942231192518e-177</v>
+        <v>4.838931456804217e-177</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>4.648325418752743e-177</v>
+        <v>4.602759685661377e-177</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>4.428221730523966e-177</v>
+        <v>4.3801221939106e-177</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>4.219232216558103e-177</v>
+        <v>4.170410527883677e-177</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>4.020955499412747e-177</v>
+        <v>3.973003742017054e-177</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>3.832990201645776e-177</v>
+        <v>3.787280890747482e-177</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>3.654934945814851e-177</v>
+        <v>3.612621028511489e-177</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>3.486388354478317e-177</v>
+        <v>3.448403209746279e-177</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>3.326949050193821e-177</v>
+        <v>3.294006488888369e-177</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>3.176215655519054e-177</v>
+        <v>3.148809920374321e-177</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>3.033786793012293e-177</v>
+        <v>3.012192558641268e-177</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>2.899261085231218e-177</v>
+        <v>2.88353345812576e-177</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>2.772237154733715e-177</v>
+        <v>2.762211673264548e-177</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>2.652313624077511e-177</v>
+        <v>2.647606258494235e-177</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>2.539089115820805e-177</v>
+        <v>2.539096268251869e-177</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>2.432162252521319e-177</v>
+        <v>2.436060756974048e-177</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>2.331131656736807e-177</v>
+        <v>2.337878779097394e-177</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>2.235598002038559e-177</v>
+        <v>2.24396717078095e-177</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>2.145175688894015e-177</v>
+        <v>2.153995631404455e-177</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>2.059484751584069e-177</v>
+        <v>2.067737640849454e-177</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>1.978145241567066e-177</v>
+        <v>1.984966995417495e-177</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>1.900777210301009e-177</v>
+        <v>1.905457491409785e-177</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>1.827000709244019e-177</v>
+        <v>1.828982925127648e-177</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.756435789854122e-177</v>
+        <v>1.755317092872311e-177</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.688702503589624e-177</v>
+        <v>1.68423379094529e-177</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.623420901908547e-177</v>
+        <v>1.61550681564781e-177</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.560211036268932e-177</v>
+        <v>1.548909963281107e-177</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.498692958129061e-177</v>
+        <v>1.48421703014668e-177</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.43848671894697e-177</v>
+        <v>1.421201812545762e-177</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.379212370180777e-177</v>
+        <v>1.359638106779676e-177</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.320489963288526e-177</v>
+        <v>1.299299709149666e-177</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.261939549728488e-177</v>
+        <v>1.239960415957215e-177</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.203209674896041e-177</v>
+        <v>1.181409553331348e-177</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.144315201736144e-177</v>
+        <v>1.1236360985898e-177</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.085525124254844e-177</v>
+        <v>1.066767536114805e-177</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>1.027113548445383e-177</v>
+        <v>1.010934136434891e-177</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>9.693545803010028e-178</v>
+        <v>9.562661700785907e-178</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>9.125223258151742e-178</v>
+        <v>9.028939075746522e-178</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>8.568908909811385e-178</v>
+        <v>8.509476194516069e-178</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>8.027343817922137e-178</v>
+        <v>8.005575762380582e-178</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>7.503269042416503e-178</v>
+        <v>7.518540484625476e-178</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>6.999425643229043e-178</v>
+        <v>7.049673066538066e-178</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>6.518554680292236e-178</v>
+        <v>6.600276213403745e-178</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>6.063397213538683e-178</v>
+        <v>6.171652630507999e-178</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>5.636615562311895e-178</v>
+        <v>5.765065074504577e-178</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>5.238935537802851e-178</v>
+        <v>5.38079382460435e-178</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>4.869074058385067e-178</v>
+        <v>5.018099958589257e-178</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>4.525654818795405e-178</v>
+        <v>4.67619725770888e-178</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>4.207301513772043e-178</v>
+        <v>4.354299503214118e-178</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>3.912637838051807e-178</v>
+        <v>4.051620476354521e-178</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>3.640287486371637e-178</v>
+        <v>3.767373958379742e-178</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>3.388874153469534e-178</v>
+        <v>3.50077373054053e-178</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>3.157021534082415e-178</v>
+        <v>3.251033574086513e-178</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>2.943353322947296e-178</v>
+        <v>3.017367270267406e-178</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>2.746493214802025e-178</v>
+        <v>2.79898860033383e-178</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>2.565064904383597e-178</v>
+        <v>2.595111345535479e-178</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>2.397692086429298e-178</v>
+        <v>2.404949287122361e-178</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>2.24299845567622e-178</v>
+        <v>2.227716206344263e-178</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>2.099607706862056e-178</v>
+        <v>2.06262588445166e-178</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>1.96614353472388e-178</v>
+        <v>1.90889210269432e-178</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>1.841229633998823e-178</v>
+        <v>1.765728642322074e-178</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>1.723489699424496e-178</v>
+        <v>1.632349284585305e-178</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>1.611547425738018e-178</v>
+        <v>1.507967810733828e-178</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>1.504026507676676e-178</v>
+        <v>1.391798002017654e-178</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>1.399550639977621e-178</v>
+        <v>1.283053639686655e-178</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>1.296743517378413e-178</v>
+        <v>1.180948504991126e-178</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>1.194228834616201e-178</v>
+        <v>1.084696379180929e-178</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>1.090630286428134e-178</v>
+        <v>9.935110435059577e-179</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>9.845715675517703e-179</v>
+        <v>9.066062792164608e-179</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>8.746763727242614e-179</v>
+        <v>8.231958675623253e-179</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>7.60249216606746e-179</v>
+        <v>7.427380225691535e-179</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>6.441336130108731e-179</v>
+        <v>6.659615547225557e-179</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>5.303193909493421e-179</v>
+        <v>5.940068326846467e-179</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>4.227969675522387e-179</v>
+        <v>5.280144362674571e-179</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>3.255567599496831e-179</v>
+        <v>4.691249452830489e-179</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>2.425891852721728e-179</v>
+        <v>4.184789395437118e-179</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>1.778846606498107e-179</v>
+        <v>3.772169988614975e-179</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>1.354336032127961e-179</v>
+        <v>3.464797030485073e-179</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>1.192264300914832e-179</v>
+        <v>3.274076319169568e-179</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>1.332535584160391e-179</v>
+        <v>3.211413652789329e-179</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>1.815054053167022e-179</v>
+        <v>3.288214829465693e-179</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>2.679723879238512e-179</v>
+        <v>3.515885647320405e-179</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>3.966449233675019e-179</v>
+        <v>3.905831904474218e-179</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>2.986677582456633e-189</v>
+        <v>2.958132300280426e-189</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>3.591186046109555e-189</v>
+        <v>3.586694357294557e-189</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>3.109820869439777e-189</v>
+        <v>3.081893658572104e-189</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>2.72963108834928e-189</v>
+        <v>2.717712383922132e-189</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>2.42287668413885e-189</v>
+        <v>2.434887037690493e-189</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>2.173413925866162e-189</v>
+        <v>2.188234426535791e-189</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>2.106557839107837e-189</v>
+        <v>2.104331673722414e-189</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>2.442116931477325e-189</v>
+        <v>2.424497107571677e-189</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>3.024710020961661e-189</v>
+        <v>3.012196842439002e-189</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>3.013232896299421e-189</v>
+        <v>3.02371576435651e-189</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>2.786801824007614e-189</v>
+        <v>2.807734237337485e-189</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>2.593312497554862e-189</v>
+        <v>2.600042721603262e-189</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>2.286164455941955e-189</v>
+        <v>2.269359268546603e-189</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>1.911168240226846e-189</v>
+        <v>1.892252736421205e-189</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>1.617778819599449e-189</v>
+        <v>1.642811490605898e-189</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>1.41504025966911e-189</v>
+        <v>1.470596198421172e-189</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>1.267616225884918e-189</v>
+        <v>1.294607769481177e-189</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>1.158453207532265e-189</v>
+        <v>1.169832059237598e-189</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>1.015690319253897e-189</v>
+        <v>1.019619939950642e-189</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>8.679710675218066e-190</v>
+        <v>8.609290250740497e-190</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>7.551414469946302e-190</v>
+        <v>7.52755956385843e-190</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>6.482948493442281e-190</v>
+        <v>6.497172995947345e-190</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>5.533546021843545e-190</v>
+        <v>5.562148217117705e-190</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>4.782424554131621e-190</v>
+        <v>4.817384476732525e-190</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>4.180762223596865e-190</v>
+        <v>4.215632928436322e-190</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>3.665866320198045e-190</v>
+        <v>3.694245446480646e-190</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>3.179683804384352e-190</v>
+        <v>3.195560895014341e-190</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>2.71150133092209e-190</v>
+        <v>2.712801617474216e-190</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>2.278281359553079e-190</v>
+        <v>2.268937535298202e-190</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>1.89704350844126e-190</v>
+        <v>1.886876491810361e-190</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>1.573499875276411e-190</v>
+        <v>1.572571179244142e-190</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>1.298674361332866e-190</v>
+        <v>1.309949957439411e-190</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>1.062609298653434e-190</v>
+        <v>1.08146936448107e-190</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>8.572361045266902e-191</v>
+        <v>8.730112026785031e-191</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>6.86944490201737e-191</v>
+        <v>6.930464871320731e-191</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>5.6111224853846e-191</v>
+        <v>5.591143630839012e-191</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>4.803916523182364e-191</v>
+        <v>4.765579460205561e-191</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>4.273982201775733e-191</v>
+        <v>4.254973566719711e-191</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>3.830430432381501e-191</v>
+        <v>3.835514941109072e-191</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>3.386081286492733e-191</v>
+        <v>3.405138947767405e-191</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>2.948868781649821e-191</v>
+        <v>2.973437221233955e-191</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>2.53024716072726e-191</v>
+        <v>2.554133862917536e-191</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>2.1416706666001e-191</v>
+        <v>2.160952974227527e-191</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>1.794593542142824e-191</v>
+        <v>1.807618656572734e-191</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>1.499757502519408e-191</v>
+        <v>1.507044575310805e-191</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>1.258115795019213e-191</v>
+        <v>1.261010895819006e-191</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>1.063509447470352e-191</v>
+        <v>1.063208274856196e-191</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>9.09619384595425e-192</v>
+        <v>9.071452663287225e-192</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>7.901265311171089e-192</v>
+        <v>7.8633042414301e-192</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>6.987118117582303e-192</v>
+        <v>6.942723022056357e-192</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>6.29056151241451e-192</v>
+        <v>6.244794544230092e-192</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>5.748404742894932e-192</v>
+        <v>5.704604347016013e-192</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>5.297457056250598e-192</v>
+        <v>5.257237969478641e-192</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>4.882880688118613e-192</v>
+        <v>4.846365123870033e-192</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>4.491218582624918e-192</v>
+        <v>4.458181520426842e-192</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>4.121804500459302e-192</v>
+        <v>4.092027696027873e-192</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>3.773975946903114e-192</v>
+        <v>3.747248035782144e-192</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>3.44707042723721e-192</v>
+        <v>3.423186924798172e-192</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>3.140425446742604e-192</v>
+        <v>3.119188748184646e-192</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>2.853378510700193e-192</v>
+        <v>2.834597891050129e-192</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>2.585267124391257e-192</v>
+        <v>2.568758738503565e-192</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>2.335428793096683e-192</v>
+        <v>2.321015675653509e-192</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>2.103201022097388e-192</v>
+        <v>2.090713087608548e-192</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>1.887921316674604e-192</v>
+        <v>1.877195359477578e-192</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>1.688927182109241e-192</v>
+        <v>1.679806876369178e-192</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>1.505556123682319e-192</v>
+        <v>1.497892023392035e-192</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>1.337145646674788e-192</v>
+        <v>1.330795185654767e-192</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>1.183033256367817e-192</v>
+        <v>1.17786074826621e-192</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>1.04255645804235e-192</v>
+        <v>1.038433096334974e-192</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>9.150527569793511e-193</v>
+        <v>9.118566149696924e-193</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>7.998596584599552e-193</v>
+        <v>7.974756892791659e-193</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>6.963146677651224e-193</v>
+        <v>6.946347043720227e-193</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>6.037552901758732e-193</v>
+        <v>6.026780453569503e-193</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>5.215190309731928e-193</v>
+        <v>5.209500973426016e-193</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>4.489433954381759e-193</v>
+        <v>4.48795245437738e-193</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>3.853658888518031e-193</v>
+        <v>3.855578747510078e-193</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>3.301240164950718e-193</v>
+        <v>3.305823703910756e-193</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>2.825552836490516e-193</v>
+        <v>2.832131174666784e-193</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>2.419971955947362e-193</v>
+        <v>2.427945010864772e-193</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>2.07787257613146e-193</v>
+        <v>2.086709063591597e-193</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>1.792629749852896e-193</v>
+        <v>1.801867183934018e-193</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>1.557618529922128e-193</v>
+        <v>1.566863222979165e-193</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>1.366213969149219e-193</v>
+        <v>1.375141031813775e-193</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>1.21179112034437e-193</v>
+        <v>1.220144461524724e-193</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>1.087725036317736e-193</v>
+        <v>1.095317363198836e-193</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>9.873907698796287e-194</v>
+        <v>9.941035879231e-194</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>9.041633738401895e-194</v>
+        <v>9.099469867843279e-194</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>8.314182709097088e-194</v>
+        <v>8.36291776641559e-194</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>7.638525505647082e-194</v>
+        <v>7.678890918925262e-194</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>7.00453478997797e-194</v>
+        <v>7.037323671407328e-194</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>6.410772941567399e-194</v>
+        <v>6.436743113971642e-194</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>5.855802339893827e-194</v>
+        <v>5.875676336728866e-194</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>5.338185364434885e-194</v>
+        <v>5.352650429788846e-194</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>4.85648439466849e-194</v>
+        <v>4.866192483261696e-194</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>4.409261810072367e-194</v>
+        <v>4.414829587257346e-194</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>3.995079990124828e-194</v>
+        <v>3.997088831886319e-194</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>3.612501314303583e-194</v>
+        <v>3.611497307258528e-194</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>3.260088162086544e-194</v>
+        <v>3.256582103484092e-194</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>2.936402912951487e-194</v>
+        <v>2.930870310672991e-194</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>2.64000794637662e-194</v>
+        <v>2.632889018935641e-194</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>2.369465641839703e-194</v>
+        <v>2.361165318382006e-194</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>2.123338378818547e-194</v>
+        <v>2.114226299122104e-194</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>1.900188536791288e-194</v>
+        <v>1.890599051266277e-194</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>1.698578495235725e-194</v>
+        <v>1.688810664924528e-194</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>1.517070633629772e-194</v>
+        <v>1.507388230206978e-194</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>1.354227331451275e-194</v>
+        <v>1.344858837223679e-194</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>1.208610968178296e-194</v>
+        <v>1.199749576084898e-194</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>1.078783923288671e-194</v>
+        <v>1.070587536900678e-194</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>9.633085762602666e-195</v>
+        <v>9.558998097810908e-195</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>8.607473065711015e-195</v>
+        <v>8.542134848363604e-195</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>7.696624936990352e-195</v>
+        <v>7.640556521765527e-195</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>6.886165171219827e-195</v>
+        <v>6.839534019117881e-195</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>6.161717563178283e-195</v>
+        <v>6.124338241521572e-195</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>5.508905907645514e-195</v>
+        <v>5.480240090078446e-195</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>4.91477179389739e-195</v>
+        <v>4.893977287826684e-195</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>4.373931901480072e-195</v>
+        <v>4.360124595265544e-195</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>3.883522432474819e-195</v>
+        <v>3.875863420707944e-195</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>3.440681285714997e-195</v>
+        <v>3.438376927892757e-195</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>3.042546360034217e-195</v>
+        <v>3.044848280559102e-195</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>2.686255554265945e-195</v>
+        <v>2.69246064244595e-195</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>2.368946767244117e-195</v>
+        <v>2.37839717729274e-195</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>2.087757897802177e-195</v>
+        <v>2.099841048838424e-195</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>1.839826844773637e-195</v>
+        <v>1.85397542082202e-195</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>1.622291506992334e-195</v>
+        <v>1.637983456982869e-195</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>1.432289783291766e-195</v>
+        <v>1.449048321059975e-195</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>1.266959572505548e-195</v>
+        <v>1.284353176792459e-195</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>1.123438773467234e-195</v>
+        <v>1.141081187919382e-195</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>9.988652850105697e-196</v>
+        <v>1.016415518179992e-195</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>8.903770059691003e-196</v>
+        <v>9.075393313133427e-196</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>7.951118351764009e-196</v>
+        <v>8.116357910585138e-196</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>7.102076714661721e-196</v>
+        <v>7.258880611547119e-196</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>6.329433950745999e-196</v>
+        <v>6.476192829275818e-196</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>5.620954751338179e-196</v>
+        <v>5.756395234634596e-196</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>4.97343438482746e-196</v>
+        <v>5.096554776022942e-196</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>4.383792649706791e-196</v>
+        <v>4.493862045264645e-196</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>3.848949344468234e-196</v>
+        <v>3.945507634182586e-196</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>3.365824267604158e-196</v>
+        <v>3.448682134599959e-196</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>2.931337217606745e-196</v>
+        <v>3.000576138339767e-196</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>2.542407992968752e-196</v>
+        <v>2.598380237225607e-196</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>2.19595639218234e-196</v>
+        <v>2.239285023080457e-196</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>1.888902213739748e-196</v>
+        <v>1.92048108772738e-196</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>1.618165256133618e-196</v>
+        <v>1.639159022989853e-196</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>1.380665317856172e-196</v>
+        <v>1.392509420690917e-196</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>1.173322197399688e-196</v>
+        <v>1.177722872653677e-196</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>9.931077795808901e-197</v>
+        <v>9.920187375550007e-197</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>8.376319879498893e-197</v>
+        <v>8.329687576781076e-197</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>7.049323788336611e-197</v>
+        <v>6.983808534131398e-197</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>5.930543901071909e-197</v>
+        <v>5.860672980651243e-197</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>5.000434596456104e-197</v>
+        <v>4.938403649392343e-197</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>4.239450253238961e-197</v>
+        <v>4.195123273404868e-197</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>3.628045250170795e-197</v>
+        <v>3.608954585739547e-197</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>3.146673966001729e-197</v>
+        <v>3.158020319446929e-197</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>2.775790779482504e-197</v>
+        <v>2.820443207578141e-197</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>2.495850069363192e-197</v>
+        <v>2.574345983183676e-197</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>2.287306214394026e-197</v>
+        <v>2.397851379314194e-197</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>2.130613593325501e-197</v>
+        <v>2.269082129020572e-197</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>2.006226584907824e-197</v>
+        <v>2.166160965353445e-197</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>1.895340958631775e-197</v>
+        <v>2.068089359248611e-197</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>1.789699923727015e-197</v>
+        <v>1.966370198753216e-197</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>1.688895654421393e-197</v>
+        <v>1.861809405424299e-197</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>1.592707204290391e-197</v>
+        <v>1.755434400702516e-197</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>1.500913626909498e-197</v>
+        <v>1.648272606028519e-197</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>1.41329397585433e-197</v>
+        <v>1.541351442843107e-197</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>1.329627304700375e-197</v>
+        <v>1.435698332586931e-197</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>1.249692667023162e-197</v>
+        <v>1.332340696700692e-197</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>1.173269116398191e-197</v>
+        <v>1.232305956625046e-197</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>1.100135706401059e-197</v>
+        <v>1.136621533800786e-197</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>1.030071490607264e-197</v>
+        <v>1.046314849668565e-197</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>9.628555225923055e-198</v>
+        <v>9.624133256690487e-198</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>8.982668559317763e-198</v>
+        <v>8.859443832430128e-198</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>8.360845442011762e-198</v>
+        <v>8.179354438311198e-198</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>7.76075781110236e-198</v>
+        <v>7.59198716431936e-198</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>7.17841801419324e-198</v>
+        <v>7.075348725289053e-198</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>6.608617217521464e-198</v>
+        <v>6.58528593738523e-198</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>6.046160682585121e-198</v>
+        <v>6.077207756170558e-198</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>5.508619252455866e-198</v>
+        <v>5.547359213554011e-198</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>5.072876078076241e-198</v>
+        <v>5.09893942757394e-198</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>4.76135172656492e-198</v>
+        <v>4.776260865022982e-198</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>4.491593159610499e-198</v>
+        <v>4.498797336693409e-198</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>4.18437031474093e-198</v>
+        <v>4.187286514155345e-198</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>3.834434084410821e-198</v>
+        <v>3.835752820638156e-198</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>3.462900954994031e-198</v>
+        <v>3.46433887067901e-198</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>3.090919745333127e-198</v>
+        <v>3.093219307890758e-198</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>2.739137739311937e-198</v>
+        <v>2.742096617112487e-198</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>2.418312586148965e-198</v>
+        <v>2.421362909707806e-198</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>2.130148406389194e-198</v>
+        <v>2.132887056690853e-198</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>1.876015415941736e-198</v>
+        <v>1.878223582088194e-198</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>1.657283830716041e-198</v>
+        <v>1.658927009926731e-198</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>1.475323866621205e-198</v>
+        <v>1.476551864233018e-198</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>1.331505739566448e-198</v>
+        <v>1.332652669033727e-198</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>1.22719966546095e-198</v>
+        <v>1.228783948355494e-198</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>1.163775860214027e-198</v>
+        <v>1.166500226225087e-198</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>1.139244349822952e-198</v>
+        <v>1.143815581803932e-198</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>1.112598147619503e-198</v>
+        <v>1.11763404221204e-198</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>1.031549808718227e-198</v>
+        <v>1.033037314966296e-198</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>9.122161210994688e-199</v>
+        <v>9.074947743130614e-199</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>7.915545825547077e-199</v>
+        <v>7.805332126081166e-199</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>6.892101191635084e-199</v>
+        <v>6.734952955009799e-199</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>6.027641058517999e-199</v>
+        <v>5.845493433937969e-199</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>5.283662686498328e-199</v>
+        <v>5.103599511301934e-199</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>4.621665339975889e-199</v>
+        <v>4.475918187263429e-199</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>4.013729136761785e-199</v>
+        <v>3.934649163574782e-199</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>3.467213647119804e-199</v>
+        <v>3.470506364245998e-199</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>2.996822405601982e-199</v>
+        <v>3.078057735320878e-199</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>2.617258946760207e-199</v>
+        <v>2.751871222843095e-199</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>2.340909209836994e-199</v>
+        <v>2.485887143703847e-199</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>2.148991955704558e-199</v>
+        <v>2.265605415525278e-199</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>2.000411104875886e-199</v>
+        <v>2.070482862775217e-199</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>1.853585639213015e-199</v>
+        <v>1.879844983441437e-199</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>1.675826497405932e-199</v>
+        <v>1.677665689335522e-199</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>1.472620700886319e-199</v>
+        <v>1.467876055151759e-199</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>1.259698472367162e-199</v>
+        <v>1.259761954236775e-199</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>1.052790159820637e-199</v>
+        <v>1.062609325418307e-199</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>8.676260768753421e-200</v>
+        <v>8.857040875108292e-200</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>7.162056891106396e-200</v>
+        <v>7.361580518238563e-200</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>5.965328251779474e-200</v>
+        <v>6.129272380400425e-200</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>5.033300927893951e-200</v>
+        <v>5.130555732090483e-200</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>4.313200996571877e-200</v>
+        <v>4.335869843806082e-200</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>3.753333601080975e-200</v>
+        <v>3.715820694084645e-200</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>3.3189446960528e-200</v>
+        <v>3.243631496260072e-200</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>2.988740138729564e-200</v>
+        <v>2.894604922830957e-200</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>2.741797104574314e-200</v>
+        <v>2.644101012318705e-200</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>2.557192769050409e-200</v>
+        <v>2.467479803245037e-200</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>2.414004307620863e-200</v>
+        <v>2.340101334131317e-200</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>2.291308895748821e-200</v>
+        <v>2.237325643499048e-200</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>2.168183708897367e-200</v>
+        <v>2.13451276986968e-200</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>2.023776731341091e-200</v>
+        <v>2.007104648624875e-200</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>1.846459145699748e-200</v>
+        <v>1.841210686750649e-200</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>1.642878716463244e-200</v>
+        <v>1.644078828086197e-200</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>1.421834744590396e-200</v>
+        <v>1.425445464981564e-200</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>1.192126531039751e-200</v>
+        <v>1.195046989786531e-200</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>9.625533767699426e-201</v>
+        <v>9.626197948509595e-201</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>7.419145827395056e-201</v>
+        <v>7.379002725246163e-201</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>5.390094499072747e-201</v>
+        <v>5.306248151575696e-201</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>3.626372792317806e-201</v>
+        <v>3.505298150995791e-201</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>2.215771533273336e-201</v>
+        <v>2.073295452835206e-201</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>1.204273151661834e-201</v>
+        <v>1.061643266931468e-201</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>5.450926324363037e-202</v>
+        <v>4.202547027729178e-202</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>1.789719799697644e-202</v>
+        <v>8.53970908370758e-203</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>4.665319863521528e-203</v>
+        <v>-6.662238398537906e-204</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>8.887829280577173e-203</v>
+        <v>8.034404554365557e-203</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>2.463892668543422e-202</v>
+        <v>2.826832731410828e-202</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>4.599281251540441e-202</v>
+        <v>5.366227748713789e-202</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>6.7023687207768e-202</v>
+        <v>7.7842988121181e-202</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>8.206277101689406e-202</v>
+        <v>9.471901288069858e-202</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>8.935032113150201e-202</v>
+        <v>1.024851399008731e-201</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>9.016846452048304e-202</v>
+        <v>1.026715484442128e-201</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>8.58794870969289e-202</v>
+        <v>9.689631155257432e-202</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>7.784567477393347e-202</v>
+        <v>8.677750226781603e-202</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>6.742931346458381e-202</v>
+        <v>7.393319363178811e-202</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>5.59926890819819e-202</v>
+        <v>5.998145868635926e-202</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>4.489808753921559e-202</v>
+        <v>4.654037047338066e-202</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>3.550779474937694e-202</v>
+        <v>3.522800203470875e-202</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>2.889213643278269e-202</v>
+        <v>2.731269687233642e-202</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>2.491737566226805e-202</v>
+        <v>2.262049133101113e-202</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>2.31394252739415e-202</v>
+        <v>2.060566338508317e-202</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>2.311419778620793e-202</v>
+        <v>2.072249062833618e-202</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>2.439760571747307e-202</v>
+        <v>2.242525065455486e-202</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>2.654556158614049e-202</v>
+        <v>2.516822105752111e-202</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>2.911397791061545e-202</v>
+        <v>2.840567943101903e-202</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>3.165876720930392e-202</v>
+        <v>3.159190336883363e-202</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>3.37367498049551e-202</v>
+        <v>3.418228414509996e-202</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>3.507500681186681e-202</v>
+        <v>3.584108634390274e-202</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>3.577013315417262e-202</v>
+        <v>3.668588838529815e-202</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>3.596715413783262e-202</v>
+        <v>3.689368233391793e-202</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>3.581109506880788e-202</v>
+        <v>3.664146025439505e-202</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>3.544698125305902e-202</v>
+        <v>3.610621421136192e-202</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>3.501983799654651e-202</v>
+        <v>3.546493626945066e-202</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>3.46746906052314e-202</v>
+        <v>3.489461849329436e-202</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>3.455656438507415e-202</v>
+        <v>3.457225294752512e-202</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>3.480854895953652e-202</v>
+        <v>3.467260238810275e-202</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>3.546529979075101e-202</v>
+        <v>3.524554689193061e-202</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>3.639768709251009e-202</v>
+        <v>3.615233649209701e-202</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>3.746298151043094e-202</v>
+        <v>3.723855871748544e-202</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>3.851845369013099e-202</v>
+        <v>3.834980109697975e-202</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>3.94213742772262e-202</v>
+        <v>3.93316511594622e-202</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>4.002901391733403e-202</v>
+        <v>4.002969643381665e-202</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>4.019864325607141e-202</v>
+        <v>4.028952444892639e-202</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>3.97875329390551e-202</v>
+        <v>3.995672273367451e-202</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>3.868573373565503e-202</v>
+        <v>3.891152654706337e-202</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>3.695485443374425e-202</v>
+        <v>3.721550346915817e-202</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>3.471243960097597e-202</v>
+        <v>3.498934373057987e-202</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>3.207606458833045e-202</v>
+        <v>3.23537700991177e-202</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>2.916330474678502e-202</v>
+        <v>2.942950534255796e-202</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>2.609173542731793e-202</v>
+        <v>2.633727222868788e-202</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>2.297893198090598e-202</v>
+        <v>2.319779352529322e-202</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>1.994246975853027e-202</v>
+        <v>2.013179200016406e-202</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>1.709992219905102e-202</v>
+        <v>1.725998846174389e-202</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>1.454323392057805e-202</v>
+        <v>1.467684191369214e-202</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>1.227447120769303e-202</v>
+        <v>1.238471319906929e-202</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>1.027600889897722e-202</v>
+        <v>1.036578537297544e-202</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>8.530221833013084e-203</v>
+        <v>8.602241490511892e-203</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>7.019484848382477e-203</v>
+        <v>7.076264606779345e-203</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>5.726172783669228e-203</v>
+        <v>5.770037776880483e-203</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>4.632660477455077e-203</v>
+        <v>4.665744055915881e-203</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>3.721322768322501e-203</v>
+        <v>3.745566498986861e-203</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>2.974534494853675e-203</v>
+        <v>2.991688161194439e-203</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>2.374670495631738e-203</v>
+        <v>2.386292097640604e-203</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>1.904105609238793e-203</v>
+        <v>1.9115613634263e-203</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>1.545214674257179e-203</v>
+        <v>1.549679013652708e-203</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>1.280372529269685e-203</v>
+        <v>1.282828103421465e-203</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>1.091954012858604e-203</v>
+        <v>1.093191687833703e-203</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>9.623339636063624e-204</v>
+        <v>9.629528219906938e-204</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>8.738872200955455e-204</v>
+        <v>8.742945609938679e-204</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>8.089886209085582e-204</v>
+        <v>8.093999599444726e-204</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>7.516959788598468e-204</v>
+        <v>7.521534857783452e-204</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>6.973097701419732e-204</v>
+        <v>6.978054363273928e-204</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>6.457369190427504e-204</v>
+        <v>6.462630228542018e-204</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>5.968982665300029e-204</v>
+        <v>5.974475257637249e-204</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>5.5071465357158e-204</v>
+        <v>5.512802254609392e-204</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>5.071069211353115e-204</v>
+        <v>5.07682402350804e-204</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>4.659959101890862e-204</v>
+        <v>4.665753368383356e-204</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>4.273024617007325e-204</v>
+        <v>4.278803093284915e-204</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>3.90947416638084e-204</v>
+        <v>3.915186002262338e-204</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>3.568516159690224e-204</v>
+        <v>3.574114899365722e-204</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>3.249359006613801e-204</v>
+        <v>3.25480258864468e-204</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>2.95121111682993e-204</v>
+        <v>2.956461874148854e-204</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>2.673280900017375e-204</v>
+        <v>2.678305559928292e-204</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>2.414776765854484e-204</v>
+        <v>2.41954645003263e-204</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>2.174907124019648e-204</v>
+        <v>2.179397348511539e-204</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>1.952880384191667e-204</v>
+        <v>1.957071059415109e-204</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>1.747904956048635e-204</v>
+        <v>1.751780386792713e-204</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>1.559189249269248e-204</v>
+        <v>1.562738134694337e-204</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>1.385941673532147e-204</v>
+        <v>1.389157107169903e-204</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>1.22737063851551e-204</v>
+        <v>1.230250108268876e-204</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>1.082684553898115e-204</v>
+        <v>1.085229942041318e-204</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>9.510918293581917e-205</v>
+        <v>9.533094125367431e-205</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>8.318008745743677e-205</v>
+        <v>8.337013238050635e-205</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>7.240200992252249e-205</v>
+        <v>7.256184798961467e-205</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>6.269579129890601e-205</v>
+        <v>6.282736848595734e-205</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>5.398227255444663e-205</v>
+        <v>5.408797427452215e-205</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>4.61836859469006e-205</v>
+        <v>4.626630672782918e-205</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>3.923848524189784e-205</v>
+        <v>3.930087518781965e-205</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>3.309561241841329e-205</v>
+        <v>3.314044862519138e-205</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>2.770418528276533e-205</v>
+        <v>2.773396800592952e-205</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>2.301332164125812e-205</v>
+        <v>2.303037429600499e-205</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>1.897213930021071e-205</v>
+        <v>1.897860846140361e-205</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>1.552975606593979e-205</v>
+        <v>1.552761146810887e-205</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>1.263528974475305e-205</v>
+        <v>1.26263242820952e-205</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>1.02378581429677e-205</v>
+        <v>1.022368786934661e-205</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>8.286579066899151e-206</v>
+        <v>8.268643195845275e-206</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>6.73057032285779e-206</v>
+        <v>6.710131227568344e-206</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>5.51894971716036e-206</v>
+        <v>5.497092930499346e-206</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>4.600835056118569e-206</v>
+        <v>4.578469270616756e-206</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>3.925344146047505e-206</v>
+        <v>3.903201213902436e-206</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>3.441594793261381e-206</v>
+        <v>3.42022972633737e-206</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>3.09870480407321e-206</v>
+        <v>3.078495773901348e-206</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>2.845791984797362e-206</v>
+        <v>2.826940322575508e-206</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>2.632761358016495e-206</v>
+        <v>2.615294337100483e-206</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>2.43226303757629e-206</v>
+        <v>2.416114268180624e-206</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>2.242613688288634e-206</v>
+        <v>2.227713838365936e-206</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>2.063504159049617e-206</v>
+        <v>2.049785811475724e-206</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>1.894625298754851e-206</v>
+        <v>1.88202295132881e-206</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>1.735667956300571e-206</v>
+        <v>1.724118021744642e-206</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>1.586322980582426e-206</v>
+        <v>1.575763786542081e-206</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>1.446281220496498e-206</v>
+        <v>1.43665300954042e-206</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>1.315233524938831e-206</v>
+        <v>1.306478454558917e-206</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>1.192870742805125e-206</v>
+        <v>1.184932885416483e-206</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>1.078883722991433e-206</v>
+        <v>1.071709065932382e-206</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>9.729633143937826e-207</v>
+        <v>9.664997599258536e-207</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>8.748003659079144e-207</v>
+        <v>8.689977312158525e-207</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>7.840857264298613e-207</v>
+        <v>7.788957436216219e-207</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>7.005102448556285e-207</v>
+        <v>6.958865609623789e-207</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>6.237647700809988e-207</v>
+        <v>6.196629470571191e-207</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>5.535401510019837e-207</v>
+        <v>5.499176657250658e-207</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>4.895272365145716e-207</v>
+        <v>4.863434807854189e-207</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>4.314168755145802e-207</v>
+        <v>4.286331560572088e-207</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>3.788999168980483e-207</v>
+        <v>3.764794553596855e-207</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>3.316672095608145e-207</v>
+        <v>3.295751425119004e-207</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>2.894096023988618e-207</v>
+        <v>2.87612981333048e-207</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>2.518179443081551e-207</v>
+        <v>2.502857356423053e-207</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>2.185830841845602e-207</v>
+        <v>2.172861692587502e-207</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>1.893958709240461e-207</v>
+        <v>1.883070460015636e-207</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>1.639471534225673e-207</v>
+        <v>1.630411296899118e-207</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>1.419277805760113e-207</v>
+        <v>1.411811841428948e-207</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>1.230286012803359e-207</v>
+        <v>1.224199731796819e-207</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>1.069404644314876e-207</v>
+        <v>1.064502606194318e-207</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>9.335421892537072e-208</v>
+        <v>9.296481028126081e-208</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>8.196071365793412e-208</v>
+        <v>8.165638598432983e-208</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>7.245079752511877e-208</v>
+        <v>7.221775154779172e-208</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>6.451531942284101e-208</v>
+        <v>6.43416707907749e-208</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>5.784512824704885e-208</v>
+        <v>5.772090753243929e-208</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>5.213107289366364e-208</v>
+        <v>5.204822559191834e-208</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>4.707384242638073e-208</v>
+        <v>4.702617316688181e-208</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>4.252446250977564e-208</v>
+        <v>4.250678271631135e-208</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>3.845129371959867e-208</v>
+        <v>3.84587563752381e-208</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>3.482580910509099e-208</v>
+        <v>3.485389110588699e-208</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>3.161948171549216e-208</v>
+        <v>3.166398387048136e-208</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>2.880378460003324e-208</v>
+        <v>2.886083163123612e-208</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>2.635019080795415e-208</v>
+        <v>2.641623135037498e-208</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>2.42301733884935e-208</v>
+        <v>2.430197999012032e-208</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>2.241520539088433e-208</v>
+        <v>2.248987451268903e-208</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>2.08767598643668e-208</v>
+        <v>2.095171188030506e-208</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>1.958630985817498e-208</v>
+        <v>1.965928905518628e-208</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>1.851532842154724e-208</v>
+        <v>1.858440299955486e-208</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>1.763528860372113e-208</v>
+        <v>1.769885067563216e-208</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>1.69176634539319e-208</v>
+        <v>1.697442904563725e-208</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>1.633392602141729e-208</v>
+        <v>1.638293507179164e-208</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>1.585554935541451e-208</v>
+        <v>1.589616571631638e-208</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>1.545400650515956e-208</v>
+        <v>1.548591794143126e-208</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>1.510077051988977e-208</v>
+        <v>1.512398870935739e-208</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>1.476731444884225e-208</v>
+        <v>1.478217498231573e-208</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>1.442511134125327e-208</v>
+        <v>1.443227372252632e-208</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>1.404563424635999e-208</v>
+        <v>1.404608189221013e-208</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>1.360035621339966e-208</v>
+        <v>1.359539645358823e-208</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>1.306311746740969e-208</v>
+        <v>1.305435282856722e-208</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>1.243321506060465e-208</v>
+        <v>1.242223445048248e-208</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>1.172544108432818e-208</v>
+        <v>1.171363182210094e-208</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>1.095480718795031e-208</v>
+        <v>1.094335234076626e-208</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>1.01363250208437e-208</v>
+        <v>1.012620340382475e-208</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>9.285006232378164e-209</v>
+        <v>9.276992408619887e-209</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>8.415862471925739e-209</v>
+        <v>8.410526752497336e-209</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>7.543905388858504e-209</v>
+        <v>7.541613832802824e-209</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>6.68414663254619e-209</v>
+        <v>6.685061046879734e-209</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>5.851597852360883e-209</v>
+        <v>5.855675792073796e-209</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>5.061270697674578e-209</v>
+        <v>5.068265465730648e-209</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>4.32817681785715e-209</v>
+        <v>4.337637465193819e-209</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>3.667327862280636e-209</v>
+        <v>3.678599187808984e-209</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>3.091610692864207e-209</v>
+        <v>3.103864477072272e-209</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>2.599306831061468e-209</v>
+        <v>2.611756529210814e-209</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>2.182557950570962e-209</v>
+        <v>2.194548946227206e-209</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>1.833484477778301e-209</v>
+        <v>1.844494395138865e-209</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>1.544206839070253e-209</v>
+        <v>1.553845542964363e-209</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>1.306845460833368e-209</v>
+        <v>1.314855056722057e-209</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>1.113520769453582e-209</v>
+        <v>1.119775603429687e-209</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>9.563531913174885e-210</v>
+        <v>9.608598501056543e-210</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>8.274631528115514e-210</v>
+        <v>8.303604637682281e-210</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>7.19879023413673e-210</v>
+        <v>7.214157723155784e-210</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>6.307754995034592e-210</v>
+        <v>6.312086738031892e-210</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>5.585102169672826e-210</v>
+        <v>5.580759747796213e-210</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>5.01440900956557e-210</v>
+        <v>5.003545688677803e-210</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>4.579252766229314e-210</v>
+        <v>4.563813496908089e-210</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>4.263210691178718e-210</v>
+        <v>4.24493210871665e-210</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>4.049860035929661e-210</v>
+        <v>4.030270460334299e-210</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>3.922778051997654e-210</v>
+        <v>3.903197487991472e-210</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>3.865541990897911e-210</v>
+        <v>3.847082127918313e-210</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>3.861729104146011e-210</v>
+        <v>3.845293316345328e-210</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>3.894916643257345e-210</v>
+        <v>3.881199989502832e-210</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>3.948681859747412e-210</v>
+        <v>3.93817108362126e-210</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>4.006602005131629e-210</v>
+        <v>3.999575534930948e-210</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>4.052254330925394e-210</v>
+        <v>4.048782279662225e-210</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>4.069216088644232e-210</v>
+        <v>4.069160254045546e-210</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>4.041064529803525e-210</v>
+        <v>4.044078394311218e-210</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>3.951376905918813e-210</v>
+        <v>3.956905636689708e-210</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>3.786597041149615e-210</v>
+        <v>3.793906790305975e-210</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>3.552386471921106e-210</v>
+        <v>3.560760807568952e-210</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>3.262306145542766e-210</v>
+        <v>3.271126794437949e-210</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>2.929941293711627e-210</v>
+        <v>2.938688389479131e-210</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>2.568877148125834e-210</v>
+        <v>2.577129231259774e-210</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>2.192698940482289e-210</v>
+        <v>2.200132958345916e-210</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>1.814991902478879e-210</v>
+        <v>1.821383209304574e-210</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>1.44934126581349e-210</v>
+        <v>1.454563622702769e-210</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>1.109332262183021e-210</v>
+        <v>1.113357837106531e-210</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>8.085501232853781e-211</v>
+        <v>8.114494910828986e-211</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>5.605699682249321e-211</v>
+        <v>5.625120509807305e-211</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>3.733656183855423e-211</v>
+        <v>3.745846597357921e-211</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>2.400177464373717e-211</v>
+        <v>2.407255003921843e-211</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>1.511591390364616e-211</v>
+        <v>1.515304370511246e-211</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>9.74225828386377e-212</v>
+        <v>9.759533381361412e-212</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>6.944086449999356e-212</v>
+        <v>6.951605478092292e-212</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>5.784677067646449e-212</v>
+        <v>5.788846405416208e-212</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>5.330407464792464e-212</v>
+        <v>5.333953453961091e-212</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>4.955496921425048e-212</v>
+        <v>4.958679696820684e-212</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>4.598973429974559e-212</v>
+        <v>4.601813977987639e-212</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>4.260369465452503e-212</v>
+        <v>4.262888195106999e-212</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>3.939217502870327e-212</v>
+        <v>3.941434245823742e-212</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>3.635050017238612e-212</v>
+        <v>3.636984027781985e-212</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>3.347399483568817e-212</v>
+        <v>3.349069438626722e-212</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>3.075798376872345e-212</v>
+        <v>3.077222376002888e-212</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>2.819779172159866e-212</v>
+        <v>2.820974737554688e-212</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>2.578874344442795e-212</v>
+        <v>2.579858420927069e-212</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>2.35261636873249e-212</v>
+        <v>2.353405323764927e-212</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>2.140537720039709e-212</v>
+        <v>2.14114734371255e-212</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>1.942170873375821e-212</v>
+        <v>1.942616378414844e-212</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>1.757048303752152e-212</v>
+        <v>1.757344325516667e-212</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>1.584702486179529e-212</v>
+        <v>1.58486308266238e-212</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>1.424665895669427e-212</v>
+        <v>1.424704547496993e-212</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>1.276471007232718e-212</v>
+        <v>1.276400617664913e-212</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>1.139650295880716e-212</v>
+        <v>1.139483190810985e-212</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>1.013736236624691e-212</v>
+        <v>1.013484164580015e-212</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>8.982613044755784e-213</v>
+        <v>8.979354366164715e-213</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>7.927579744446581e-213</v>
+        <v>7.923689045651696e-213</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>6.967587215431754e-213</v>
+        <v>6.963164660708875e-213</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>6.097960207821196e-213</v>
+        <v>6.093100187781488e-213</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>5.314023471727433e-213</v>
+        <v>5.308814603317402e-213</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>4.611101757262688e-213</v>
+        <v>4.605626883764178e-213</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>3.984519814537315e-213</v>
+        <v>3.978856005567511e-213</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>3.429602393664075e-213</v>
+        <v>3.423820945175503e-213</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>2.941674244753595e-213</v>
+        <v>2.935840679034118e-213</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>2.516060117918024e-213</v>
+        <v>2.510234183590847e-213</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>2.148084763269293e-213</v>
+        <v>2.14232043529296e-213</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>1.833072930918363e-213</v>
+        <v>1.827418410586758e-213</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>1.566349370977211e-213</v>
+        <v>1.560847085919559e-213</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>1.343238833557641e-213</v>
+        <v>1.337925437738505e-213</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>1.159066068770878e-213</v>
+        <v>1.153972442490161e-213</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>1.00915582672876e-213</v>
+        <v>1.004307076621706e-213</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>8.888328575430068e-214</v>
+        <v>8.842483165801995e-214</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>7.934219113250254e-214</v>
+        <v>7.891151388123879e-214</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>7.182477381866186e-214</v>
+        <v>7.142265197654137e-214</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>6.58635088239275e-214</v>
+        <v>6.549014358861061e-214</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>6.099087115946925e-214</v>
+        <v>6.064588636215024e-214</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>5.67394359533193e-214</v>
+        <v>5.642187819228252e-214</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>5.274651021817611e-214</v>
+        <v>5.245498857133857e-214</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>4.895241679930709e-214</v>
+        <v>4.868550704794198e-214</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>4.535196141666936e-214</v>
+        <v>4.510827872566931e-214</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>4.193994979021032e-214</v>
+        <v>4.171814870808741e-214</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>3.871118763988728e-214</v>
+        <v>3.850996209877301e-214</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>3.566048068565679e-214</v>
+        <v>3.547856400130209e-214</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>3.278263464746732e-214</v>
+        <v>3.261879951924257e-214</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>3.007245524527562e-214</v>
+        <v>2.992551375617063e-214</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>2.752474819903783e-214</v>
+        <v>2.739355181566184e-214</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>2.51343192287033e-214</v>
+        <v>2.5017758801285e-214</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>2.289597405422831e-214</v>
+        <v>2.279297981661583e-214</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>2.080451839556864e-214</v>
+        <v>2.071405996522951e-214</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>1.885475797267442e-214</v>
+        <v>1.877584435069565e-214</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>1.704149850550313e-214</v>
+        <v>1.697317807659112e-214</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>1.535954571400541e-214</v>
+        <v>1.530090624648605e-214</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>1.38037053181369e-214</v>
+        <v>1.375387396395548e-214</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>1.236878303785275e-214</v>
+        <v>1.232692633257401e-214</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>1.104958459310432e-214</v>
+        <v>1.101490845591243e-214</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>9.840915703846885e-215</v>
+        <v>9.812665437545455e-215</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>8.737582090035316e-215</v>
+        <v>8.715042381047381e-215</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>7.734389471621561e-215</v>
+        <v>7.716884389989605e-215</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>6.826143568560583e-215</v>
+        <v>6.813036567946523e-215</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>6.007650100807017e-215</v>
+        <v>5.998344018492199e-215</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>5.273714788313311e-215</v>
+        <v>5.267651845198528e-215</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>4.619143351034732e-215</v>
+        <v>4.615805151640203e-215</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>4.038741508924032e-215</v>
+        <v>4.037649041389418e-215</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>3.52731498193576e-215</v>
+        <v>3.528028618020157e-215</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>3.079669490024225e-215</v>
+        <v>3.081788985106162e-215</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>2.690610753142547e-215</v>
+        <v>2.693775246219995e-215</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>2.35494449124509e-215</v>
+        <v>2.35883250493545e-215</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>2.06747642428602e-215</v>
+        <v>2.071805864826132e-215</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>1.823012272218749e-215</v>
+        <v>1.827540429464889e-215</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>1.616357754997487e-215</v>
+        <v>1.620881302425366e-215</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>1.442318592576304e-215</v>
+        <v>1.446673587281071e-215</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>1.29570050490882e-215</v>
+        <v>1.299762387605057e-215</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>1.171309211949237e-215</v>
+        <v>1.174992806970964e-215</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>1.063950433651263e-215</v>
+        <v>1.067209948951936e-215</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>9.684299214058578e-216</v>
+        <v>9.71258948299605e-216</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>8.804556903261837e-216</v>
+        <v>8.82879776781232e-216</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>7.989975821551927e-216</v>
+        <v>8.010473840702898e-216</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>7.237622953686829e-216</v>
+        <v>7.254675113633262e-216</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>6.544565284427342e-216</v>
+        <v>6.55845899857172e-216</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>5.907869798531658e-216</v>
+        <v>5.918882907483966e-216</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>5.324603480759873e-216</v>
+        <v>5.333004252337596e-216</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>4.791833315871882e-216</v>
+        <v>4.797880445100019e-216</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>4.306626288626168e-216</v>
+        <v>4.310568897737214e-216</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>3.866049383782675e-216</v>
+        <v>3.868127022216632e-216</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>3.467169586101185e-216</v>
+        <v>3.467612230505559e-216</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>3.107053880340421e-216</v>
+        <v>3.10608193457022e-216</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>2.782769251260199e-216</v>
+        <v>2.780593546377937e-216</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>2.491382683620213e-216</v>
+        <v>2.488204477895908e-216</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>2.229961162179377e-216</v>
+        <v>2.225972141090551e-216</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>1.99557167169761e-216</v>
+        <v>1.990953947929288e-216</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>1.78528119693393e-216</v>
+        <v>1.780207310378643e-216</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>1.596156722648003e-216</v>
+        <v>1.590789640405783e-216</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>1.425321930613232e-216</v>
+        <v>1.419814830200861e-216</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>1.270895910510462e-216</v>
+        <v>1.265388373748603e-216</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>1.13184696450094e-216</v>
+        <v>1.126461730404569e-216</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>1.007170621215697e-216</v>
+        <v>1.002013481889022e-216</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>8.958624092854342e-217</v>
+        <v>8.910222099218994e-217</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>7.969178573411938e-217</v>
+        <v>7.924664962234767e-217</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>7.093324940139752e-217</v>
+        <v>7.05324922513987e-217</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>6.321018479345458e-217</v>
+        <v>6.285760705134332e-217</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>5.64221447733971e-217</v>
+        <v>5.611985219421142e-217</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>5.046868220430541e-217</v>
+        <v>5.02170858520068e-217</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>4.52493499492785e-217</v>
+        <v>4.504716619675182e-217</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>4.066370087141269e-217</v>
+        <v>4.050795140046621e-217</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>3.661128783379224e-217</v>
+        <v>3.649729963515772e-217</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>3.299166369951403e-217</v>
+        <v>3.291306907284661e-217</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>2.970453918147736e-217</v>
+        <v>2.965328112748591e-217</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>2.667672167910086e-217</v>
+        <v>2.664397951910134e-217</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>2.389261216215418e-217</v>
+        <v>2.387076892750645e-217</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>2.134397918946991e-217</v>
+        <v>2.132687329753428e-217</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>1.902259131987392e-217</v>
+        <v>1.900551657401108e-217</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>1.692021711220082e-217</v>
+        <v>1.689992270177189e-217</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>1.502862512527726e-217</v>
+        <v>1.500331562564375e-217</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>1.333958391793565e-217</v>
+        <v>1.330891929045947e-217</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>1.184486204900643e-217</v>
+        <v>1.180995764104991e-217</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>1.053604851246838e-217</v>
+        <v>1.049944554820918e-217</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>9.399078999354861e-218</v>
+        <v>9.363815531811437e-218</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>8.413232405734245e-218</v>
+        <v>8.381749357721542e-218</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>7.557405683166588e-218</v>
+        <v>7.531484079605761e-218</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>6.810495783214658e-218</v>
+        <v>6.791256751133068e-218</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>6.151399657440838e-218</v>
+        <v>6.139304425972035e-218</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>5.559014257405778e-218</v>
+        <v>5.553864157789527e-218</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>5.01294622830442e-218</v>
+        <v>5.013902470796041e-218</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>4.504795486133325e-218</v>
+        <v>4.510713374400928e-218</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>4.036151891609994e-218</v>
+        <v>4.045859210791321e-218</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>3.608910133716704e-218</v>
+        <v>3.621215645015466e-218</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>3.224964901435583e-218</v>
+        <v>3.238658342121462e-218</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>2.885044582664403e-218</v>
+        <v>2.898949622080453e-218</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>2.584659049577397e-218</v>
+        <v>2.59787023632398e-218</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>2.317859195361238e-218</v>
+        <v>2.329808202370387e-218</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>2.078695845194836e-218</v>
+        <v>2.089151472818191e-218</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>1.861922098490923e-218</v>
+        <v>1.870939474813826e-218</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>1.66542183151503e-218</v>
+        <v>1.673115944584931e-218</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>1.487951035565719e-218</v>
+        <v>1.494433648107852e-218</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>1.328265738871931e-218</v>
+        <v>1.333645385617914e-218</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>1.185121969662183e-218</v>
+        <v>1.189503957350014e-218</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>1.057275756165431e-218</v>
+        <v>1.060762163539494e-218</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>9.434831266105767e-219</v>
+        <v>9.461728044216367e-219</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>8.425001092262202e-219</v>
+        <v>8.44488680231425e-219</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>7.530827322413501e-219</v>
+        <v>7.54462591204231e-219</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>6.739870238846108e-219</v>
+        <v>6.748473375750813e-219</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>6.039690123848926e-219</v>
+        <v>6.043957195792495e-219</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>5.417847259709994e-219</v>
+        <v>5.418605374519221e-219</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>4.861901928717836e-219</v>
+        <v>4.859945914283346e-219</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>4.359605629962966e-219</v>
+        <v>4.355696963083021e-219</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>3.903327384155719e-219</v>
+        <v>3.898168324154315e-219</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>3.490179094395338e-219</v>
+        <v>3.484386114495707e-219</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>3.117488958380088e-219</v>
+        <v>3.111591534067989e-219</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>2.782585173808084e-219</v>
+        <v>2.777025782831807e-219</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>2.482795938376558e-219</v>
+        <v>2.477930060746922e-219</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>2.215449449783658e-219</v>
+        <v>2.211545567774013e-219</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>1.977873905727417e-219</v>
+        <v>1.975113503873643e-219</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>1.767397503905242e-219</v>
+        <v>1.765875069005749e-219</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>1.58134844201519e-219</v>
+        <v>1.581071463130917e-219</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>1.417054917755233e-219</v>
+        <v>1.417943886209649e-219</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>1.271845128822908e-219</v>
+        <v>1.273733538202013e-219</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>1.143047272916313e-219</v>
+        <v>1.145681619068634e-219</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>1.028180729704909e-219</v>
+        <v>1.031237469067926e-219</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>9.258479200774956e-220</v>
+        <v>9.290295381841906e-220</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>8.350322012015984e-220</v>
+        <v>8.381010026957909e-220</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>7.547173512538416e-220</v>
+        <v>7.574954972347849e-220</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>6.838871484110988e-220</v>
+        <v>6.862566564334806e-220</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>6.215253708502094e-220</v>
+        <v>6.234281149241519e-220</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>5.666157967478485e-220</v>
+        <v>5.680535073389071e-220</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>5.181422042808626e-220</v>
+        <v>5.191764683100275e-220</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>4.750883762815066e-220</v>
+        <v>4.758406370287899e-220</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>4.372784945672325e-220</v>
+        <v>4.379126472967267e-220</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>4.077215709503591e-220</v>
+        <v>4.083780061726429e-220</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>3.901352399050781e-220</v>
+        <v>3.909152448936317e-220</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>3.852839049226748e-220</v>
+        <v>3.862511600900599e-220</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>3.892284586128322e-220</v>
+        <v>3.90411420738311e-220</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>3.97610096656282e-220</v>
+        <v>3.99002211542562e-220</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>4.060700147337448e-220</v>
+        <v>4.076297172069786e-220</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>4.102494085259417e-220</v>
+        <v>4.119001224357267e-220</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>4.058298897170695e-220</v>
+        <v>4.074604933501977e-220</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>3.910699806724441e-220</v>
+        <v>3.925644813757582e-220</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>3.683123268949845e-220</v>
+        <v>3.695968921248831e-220</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>3.40261619194265e-220</v>
+        <v>3.413087456786414e-220</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>3.096225483799479e-220</v>
+        <v>3.104510621181912e-220</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>2.789552140633805e-220</v>
+        <v>2.796262375522689e-220</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>2.494159268694889e-220</v>
+        <v>2.499937262090729e-220</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>2.213716020483102e-220</v>
+        <v>2.219015700192639e-220</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>1.951803577720291e-220</v>
+        <v>1.956887684775076e-220</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>1.712003122127605e-220</v>
+        <v>1.716943210784002e-220</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>1.497570783938191e-220</v>
+        <v>1.502259662277316e-220</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>1.308106188911154e-220</v>
+        <v>1.312397863158145e-220</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>1.140906694404052e-220</v>
+        <v>1.144704482968859e-220</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>9.932337582617272e-221</v>
+        <v>9.964916657105895e-221</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>8.623488383286339e-221</v>
+        <v>8.650715553840806e-221</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>7.45531354075108e-221</v>
+        <v>7.477737323297025e-221</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>6.408844981216976e-221</v>
+        <v>6.42727458860164e-221</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>5.476604406925918e-221</v>
+        <v>5.491773731364997e-221</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>4.651966202213563e-221</v>
+        <v>4.664508878673766e-221</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>3.928304751415173e-221</v>
+        <v>3.938754157614217e-221</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>3.298994438864106e-221</v>
+        <v>3.307783695270714e-221</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>2.75740964889617e-221</v>
+        <v>2.764871618730071e-221</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>2.296923750467138e-221</v>
+        <v>2.303292078954432e-221</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>1.910874662481461e-221</v>
+        <v>1.91632006054482e-221</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>1.592556453781485e-221</v>
+        <v>1.59723157927254e-221</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>1.335260473978024e-221</v>
+        <v>1.339302714853033e-221</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>1.132278072682778e-221</v>
+        <v>1.135809547002624e-221</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>9.76900599507249e-222</v>
+        <v>9.80028155437448e-222</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>8.624194040625456e-222</v>
+        <v>8.652346198732376e-222</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>7.821258359602109e-222</v>
+        <v>7.847050200261645e-222</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>7.29311244811665e-222</v>
+        <v>7.317154356122765e-222</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>6.972669802282002e-222</v>
+        <v>6.995419463474935e-222</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>6.792843918212704e-222</v>
+        <v>6.814606319478975e-222</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>6.68654829202231e-222</v>
+        <v>6.707475721294709e-222</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>6.586696419824862e-222</v>
+        <v>6.606788466082458e-222</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>6.427598076720381e-222</v>
+        <v>6.446704960639468e-222</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>6.18143850593047e-222</v>
+        <v>6.199351427132481e-222</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>5.861785673266437e-222</v>
+        <v>5.878335523687896e-222</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>5.484306999441244e-222</v>
+        <v>5.499369371323959e-222</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>5.064669905166618e-222</v>
+        <v>5.078165091057672e-222</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>4.618541811155291e-222</v>
+        <v>4.630434803907047e-222</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>4.161590138120093e-222</v>
+        <v>4.171890630890196e-222</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>3.709482306772607e-222</v>
+        <v>3.718244693023976e-222</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>3.277881033482643e-222</v>
+        <v>3.285204392968994e-222</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>2.878708801394089e-222</v>
+        <v>2.884725757810168e-222</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>2.513427527561617e-222</v>
+        <v>2.518273085971493e-222</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>2.181684404990106e-222</v>
+        <v>2.185490545669618e-222</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>1.883126626684313e-222</v>
+        <v>1.886022305121071e-222</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>1.617401385648201e-222</v>
+        <v>1.619512532541586e-222</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>1.384155874886753e-222</v>
+        <v>1.385605396147916e-222</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>1.183037287404052e-222</v>
+        <v>1.183945064155913e-222</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>1.013692816204824e-222</v>
+        <v>1.014175704782076e-222</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>8.757696542936834e-223</v>
+        <v>8.759414862427868e-223</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>7.689149946748829e-223</v>
+        <v>7.688865767540709e-223</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>6.927760303530638e-223</v>
+        <v>6.926551445323391e-223</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>6.469999543327565e-223</v>
+        <v>6.468913577938924e-223</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>6.312339596183811e-223</v>
+        <v>6.312393847549213e-223</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>6.444789234645357e-223</v>
+        <v>6.446947447810484e-223</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>6.776483200014318e-223</v>
+        <v>6.781363598284192e-223</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>7.161517949732216e-223</v>
+        <v>7.169194554906493e-223</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>7.452935063995207e-223</v>
+        <v>7.462933888423081e-223</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>7.503776123000501e-223</v>
+        <v>7.515075169580704e-223</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>7.167082706944336e-223</v>
+        <v>7.17811196912514e-223</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>6.345405409509859e-223</v>
+        <v>6.354234489338837e-223</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>5.393884801855404e-223</v>
+        <v>5.399938033003184e-223</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>4.910216913408312e-223</v>
+        <v>4.9151925429263e-223</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>5.159908214961541e-223</v>
+        <v>5.166400243732215e-223</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>5.456728837891222e-223</v>
+        <v>5.464480146859818e-223</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>5.617999056588006e-223</v>
+        <v>5.626310526374338e-223</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>5.540151109462775e-223</v>
+        <v>5.548236538205478e-223</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>5.135535354401916e-223</v>
+        <v>5.14256083725478e-223</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>4.484302669523414e-223</v>
+        <v>4.489801716784228e-223</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>3.767198146854792e-223</v>
+        <v>3.771320541846083e-223</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>3.164897416621722e-223</v>
+        <v>3.168405350477733e-223</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>2.750514062464816e-223</v>
+        <v>2.754238820840193e-223</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>2.420413200890509e-223</v>
+        <v>2.424374131977359e-223</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>2.118002273572945e-223</v>
+        <v>2.121847020986732e-223</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>1.840919148725938e-223</v>
+        <v>1.844368477183634e-223</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>1.588500120849059e-223</v>
+        <v>1.591361847529697e-223</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>1.360081484442636e-223</v>
+        <v>1.362250478987309e-223</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>1.154999534006916e-223</v>
+        <v>1.156457718518773e-223</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>9.725905640415962e-224</v>
+        <v>9.734069130858496e-224</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>8.12155390156602e-224</v>
+        <v>8.124815166029225e-224</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>6.72485963904137e-224</v>
+        <v>6.724928078669081e-224</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>5.519934703505929e-224</v>
+        <v>5.518239255743861e-224</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>4.490799124843731e-224</v>
+        <v>4.488476839423509e-224</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>3.62147293293817e-224</v>
+        <v>3.619368971877328e-224</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>2.895976157670375e-224</v>
+        <v>2.894643795272352e-224</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>2.298328828924365e-224</v>
+        <v>2.298029451778508e-224</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>1.812550976581754e-224</v>
+        <v>1.813254083563321e-224</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>1.422666509473774e-224</v>
+        <v>1.424050138979835e-224</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>1.113799200294324e-224</v>
+        <v>1.115371071682497e-224</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>8.736795072845565e-225</v>
+        <v>8.750641269851514e-225</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>6.904155459709541e-225</v>
+        <v>6.91395803495655e-225</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>5.521154318797973e-225</v>
+        <v>5.526325998216587e-225</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>4.47123905731867e-225</v>
+        <v>4.472718049088361e-225</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>3.677629301871666e-225</v>
+        <v>3.676898567415797e-225</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>3.096560348681903e-225</v>
+        <v>3.094833481018962e-225</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>2.685267734576215e-225</v>
+        <v>2.683464293742707e-225</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>2.40098699638328e-225</v>
+        <v>2.39973250943373e-225</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>2.200953670930472e-225</v>
+        <v>2.200579631937424e-225</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>2.042403295045948e-225</v>
+        <v>2.042947165099965e-225</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>1.885441251372067e-225</v>
+        <v>1.886667614804749e-225</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>1.719410298070338e-225</v>
+        <v>1.721026397530739e-225</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>1.550725917153749e-225</v>
+        <v>1.552507512060944e-225</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>1.386017536447954e-225</v>
+        <v>1.38781048017867e-225</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>1.23191458377816e-225</v>
+        <v>1.233634823666775e-225</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>1.095024730341477e-225</v>
+        <v>1.096658131863497e-225</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>9.786141632265577e-226</v>
+        <v>9.801895072796437e-226</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>8.790381167918497e-226</v>
+        <v>8.805712519023376e-226</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>7.919311967820217e-226</v>
+        <v>7.934189897902454e-226</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>7.148087316841681e-226</v>
+        <v>7.162411316583149e-226</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>6.465620229498424e-226</v>
+        <v>6.479308873775723e-226</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>5.861138563005499e-226</v>
+        <v>5.874131530451436e-226</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>5.323870174578415e-226</v>
+        <v>5.336128247582007e-226</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>4.843042921431262e-226</v>
+        <v>4.854547986137735e-226</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>4.40788466077998e-226</v>
+        <v>4.418639707090771e-226</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>4.007675191075156e-226</v>
+        <v>4.017704194181274e-226</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>3.635206513081344e-226</v>
+        <v>3.644546422895576e-226</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>3.288955167876809e-226</v>
+        <v>3.297642943836535e-226</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>2.967915936194937e-226</v>
+        <v>2.975987365270448e-226</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>2.671083598770064e-226</v>
+        <v>2.678573295464563e-226</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>2.397452936336432e-226</v>
+        <v>2.40439434268604e-226</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>2.146018729627557e-226</v>
+        <v>2.152444115201305e-226</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>1.915775759377707e-226</v>
+        <v>1.92171622127754e-226</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>1.705718806321071e-226</v>
+        <v>1.711204269181848e-226</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>1.514842651191278e-226</v>
+        <v>1.519901867180773e-226</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>1.342142074722684e-226</v>
+        <v>1.346802623541582e-226</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>1.186611857648988e-226</v>
+        <v>1.190900146530889e-226</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>1.047246780704361e-226</v>
+        <v>1.051188044415778e-226</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>9.230416246229184e-227</v>
+        <v>9.266599254632778e-227</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>8.129911701384458e-227</v>
+        <v>8.163093979400875e-227</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>7.160901979850698e-227</v>
+        <v>7.191300701132479e-227</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>6.31333488896871e-227</v>
+        <v>6.341155502497529e-227</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>5.57715823607706e-227</v>
+        <v>5.602594466163723e-227</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>4.942319828516656e-227</v>
+        <v>4.965553674801103e-227</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>4.398767473628035e-227</v>
+        <v>4.419969211079346e-227</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>3.936448978750316e-227</v>
+        <v>3.955777157666701e-227</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>3.545312151224436e-227</v>
+        <v>3.562913597233245e-227</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>3.215304798389788e-227</v>
+        <v>3.231314612447503e-227</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>2.936374727586842e-227</v>
+        <v>2.950916285979081e-227</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>2.698469746155688e-227</v>
+        <v>2.711654700497204e-227</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>2.491537661436588e-227</v>
+        <v>2.503465938671271e-227</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>2.305526280769264e-227</v>
+        <v>2.316286083170138e-227</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>2.131533859738307e-227</v>
+        <v>2.141202758930065e-227</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>1.967065598510676e-227</v>
+        <v>1.975716628174678e-227</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>1.811843951375004e-227</v>
+        <v>1.819547715754358e-227</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>1.665593515191533e-227</v>
+        <v>1.672418191128585e-227</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>1.528038886820115e-227</v>
+        <v>1.534050223756449e-227</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>1.398904663121001e-227</v>
+        <v>1.404165983097437e-227</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>1.277915440954412e-227</v>
+        <v>1.282487638611009e-227</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>1.164795817180247e-227</v>
+        <v>1.168737359756297e-227</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>1.059270388658733e-227</v>
+        <v>1.062637315992769e-227</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>9.610637522500721e-228</v>
+        <v>9.63909676779861e-228</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>8.699005048142019e-228</v>
+        <v>8.722766115767491e-228</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>7.855052432114027e-228</v>
+        <v>7.874602898429507e-228</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>7.076025643016389e-228</v>
+        <v>7.091828810376662e-228</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>6.359170649451047e-228</v>
+        <v>6.371665546203273e-228</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>5.701733420019726e-228</v>
+        <v>5.711334800503438e-228</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>5.100959923322398e-228</v>
+        <v>5.108058267869492e-228</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>4.554096127960838e-228</v>
+        <v>4.559057642895582e-228</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>4.058388002536624e-228</v>
+        <v>4.06155462017566e-228</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>3.611081515650021e-228</v>
+        <v>3.612770894302353e-228</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>3.209422635902656e-228</v>
+        <v>3.209928159869662e-228</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>2.850657331895989e-228</v>
+        <v>2.850248111471416e-228</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>2.532031572230531e-228</v>
+        <v>2.530952443700494e-228</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>2.250791325508016e-228</v>
+        <v>2.249262851151002e-228</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>2.004182560329095e-228</v>
+        <v>2.00240102841596e-228</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>1.789451245295195e-228</v>
+        <v>1.787588670089163e-228</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>1.603843349007627e-228</v>
+        <v>1.602047470764292e-228</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>1.444604840067212e-228</v>
+        <v>1.44299912503454e-228</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>1.308981687075288e-228</v>
+        <v>1.307665327493611e-228</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>1.194219858633104e-228</v>
+        <v>1.193267772735125e-228</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>1.097565323341612e-228</v>
+        <v>1.097028155352404e-228</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>1.016264049802079e-228</v>
+        <v>1.016168169939085e-228</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>9.475620066157188e-229</v>
+        <v>9.479095110887503e-229</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>8.887051623835649e-229</v>
+        <v>8.894738733948036e-229</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>8.369394857068844e-229</v>
+        <v>8.380829514508808e-229</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>7.895109451867423e-229</v>
+        <v>7.909584398504172e-229</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>7.440579780573161e-229</v>
+        <v>7.45719391764246e-229</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>7.000734576683365e-229</v>
+        <v>7.018624017374313e-229</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>6.575974481103054e-229</v>
+        <v>6.59438072752847e-229</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>6.166700927846746e-229</v>
+        <v>6.184970880924884e-229</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>5.77331535093045e-229</v>
+        <v>5.790901310384993e-229</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>5.396219184368734e-229</v>
+        <v>5.412678848728805e-229</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>5.035813862177233e-229</v>
+        <v>5.050810328777389e-229</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>4.692500818371524e-229</v>
+        <v>4.705802583351758e-229</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>4.366681486966264e-229</v>
+        <v>4.378162445272004e-229</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>4.058757301977047e-229</v>
+        <v>4.068396747359156e-229</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>3.769129697419399e-229</v>
+        <v>3.777012322434179e-229</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>3.498160069281891e-229</v>
+        <v>3.504472426304629e-229</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>3.245494637350636e-229</v>
+        <v>3.250461923698922e-229</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>3.010162918907503e-229</v>
+        <v>3.01399446611704e-229</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>2.791174223538939e-229</v>
+        <v>2.794061711192622e-229</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>2.587537860832209e-229</v>
+        <v>2.589655316560132e-229</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>2.398263140373817e-229</v>
+        <v>2.399766939853269e-229</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>2.222359371750823e-229</v>
+        <v>2.223388238706288e-229</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>2.058835864550239e-229</v>
+        <v>2.059510870753399e-229</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>1.90670192835864e-229</v>
+        <v>1.907126493628373e-229</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>1.764966872763048e-229</v>
+        <v>1.765226764965427e-229</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>1.63264000735045e-229</v>
+        <v>1.632803342398742e-229</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>1.508730641707477e-229</v>
+        <v>1.508847883562148e-229</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>1.392248085421121e-229</v>
+        <v>1.392352046089831e-229</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>1.28220164807835e-229</v>
+        <v>1.282307487615957e-229</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>1.177600639265835e-229</v>
+        <v>1.177705865774391e-229</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>1.077652844360207e-229</v>
+        <v>1.077740617635423e-229</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>9.82481742149968e-230</v>
+        <v>9.825361154762342e-230</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>8.924747130720176e-230</v>
+        <v>8.924850258878662e-230</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>8.080191621963395e-230</v>
+        <v>8.079800405044648e-230</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>7.295024945926903e-230</v>
+        <v>7.294138509599496e-230</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>6.573121153310592e-230</v>
+        <v>6.571791488884719e-230</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>5.918354294814117e-230</v>
+        <v>5.916686259241601e-230</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>5.334598421135399e-230</v>
+        <v>5.332749737009681e-230</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>4.825716766986855e-230</v>
+        <v>4.823897933338578e-230</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>4.392222045858153e-230</v>
+        <v>4.390668704865048e-230</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>4.026549976492161e-230</v>
+        <v>4.025456298787112e-230</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>3.719943656313951e-230</v>
+        <v>3.719452504888242e-230</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>3.463646182748383e-230</v>
+        <v>3.463849112951702e-230</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>3.248900653219656e-230</v>
+        <v>3.249837912760093e-230</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>3.066950165152671e-230</v>
+        <v>3.068610694096719e-230</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>2.909037815972214e-230</v>
+        <v>2.911359246744769e-230</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>2.766406703102659e-230</v>
+        <v>2.769275360487018e-230</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>2.630688817677e-230</v>
+        <v>2.63394311036991e-230</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>2.498261641255431e-230</v>
+        <v>2.501733447447945e-230</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>2.368674400056241e-230</v>
+        <v>2.37221672832504e-230</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>2.241534358709956e-230</v>
+        <v>2.245021854172287e-230</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>2.116448781846757e-230</v>
+        <v>2.119777726160431e-230</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>1.993024934097172e-230</v>
+        <v>1.996113245460568e-230</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>1.870870080091724e-230</v>
+        <v>1.873657313243783e-230</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>1.749591484460603e-230</v>
+        <v>1.752038830680835e-230</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>1.628796411834334e-230</v>
+        <v>1.63088669894281e-230</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>1.508145696000225e-230</v>
+        <v>1.509882935778433e-230</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>1.388062791520156e-230</v>
+        <v>1.389465736707523e-230</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>1.269538924089144e-230</v>
+        <v>1.270636271567245e-230</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>1.153578852105087e-230</v>
+        <v>1.154409128566565e-230</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>1.041187333966204e-230</v>
+        <v>1.041798895914769e-230</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>9.333691280706984e-231</v>
+        <v>9.338201618211324e-231</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>8.311288984992575e-231</v>
+        <v>8.314874153318857e-231</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>7.353182792432697e-231</v>
+        <v>7.356542535230849e-231</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>6.463246822133963e-231</v>
+        <v>6.466862021019238e-231</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>5.64447823179288e-231</v>
+        <v>5.648565852682612e-231</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>4.899874178616883e-231</v>
+        <v>4.904387271750143e-231</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>4.231098717127587e-231</v>
+        <v>4.235779736986737e-231</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>3.634597779852441e-231</v>
+        <v>3.639187293658197e-231</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>3.105540731228721e-231</v>
+        <v>3.109828477655496e-231</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>2.639096935691668e-231</v>
+        <v>2.64292182486757e-231</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>2.230435757677975e-231</v>
+        <v>2.233685871184811e-231</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>1.874726561623835e-231</v>
+        <v>1.877339152497107e-231</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>1.567138711965695e-231</v>
+        <v>1.569100204694601e-231</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>1.302841573139193e-231</v>
+        <v>1.30418756366663e-231</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>1.077004509581006e-231</v>
+        <v>1.077819765303565e-231</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>8.849889728780521e-232</v>
+        <v>8.853997451122638e-232</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>7.232624728914478e-232</v>
+        <v>7.23392231235674e-232</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>5.886875974837857e-232</v>
+        <v>5.886412183729663e-232</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>4.781274275899279e-232</v>
+        <v>4.779911745622835e-232</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>3.884450441451098e-232</v>
+        <v>3.882865678421435e-232</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>3.165035280844914e-232</v>
+        <v>3.163718662509879e-232</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>2.591659603430475e-232</v>
+        <v>2.590915378270732e-232</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>2.132954218559525e-232</v>
+        <v>2.132900506088559e-232</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>1.757636805343362e-232</v>
+        <v>1.758206324699633e-232</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>1.442847847888676e-232</v>
+        <v>1.443858561402182e-232</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>1.181068322751348e-232</v>
+        <v>1.182352099387671e-232</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>9.664075231283857e-233</v>
+        <v>9.678237954705564e-233</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>7.929747422175236e-233</v>
+        <v>7.944105064660205e-233</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>6.54879273216347e-233</v>
+        <v>6.562490891890972e-233</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>5.462304093220865e-233</v>
+        <v>5.474764004544664e-233</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>4.611374437323571e-233</v>
+        <v>4.622292970771909e-233</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>3.937096696446882e-233</v>
+        <v>3.946446358722495e-233</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>3.381551333909779e-233</v>
+        <v>3.389573041070785e-233</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>2.910233831826229e-233</v>
+        <v>2.917265556644199e-233</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>2.512451345282223e-233</v>
+        <v>2.518753861858975e-233</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>2.17857789856154e-233</v>
+        <v>2.184326974910419e-233</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>1.898987515949283e-233</v>
+        <v>1.904273913995171e-233</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>1.664054221729443e-233</v>
+        <v>1.66888369730875e-233</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>1.464152040186779e-233</v>
+        <v>1.468445343047451e-233</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>1.289654995605926e-233</v>
+        <v>1.29324786940744e-233</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>1.130937112271062e-233</v>
+        <v>1.133580294584429e-233</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>9.808071306711048e-234</v>
+        <v>9.822430848042924e-234</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>8.425898423818346e-234</v>
+        <v>8.428841782635524e-234</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>7.224486069752062e-234</v>
+        <v>7.220795406588841e-234</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>6.264349125615883e-234</v>
+        <v>6.262834076120352e-234</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>5.533764227661078e-234</v>
+        <v>5.540897555534772e-234</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>4.919605511324389e-234</v>
+        <v>4.931006067258218e-234</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>4.38547942036573e-234</v>
+        <v>4.395338873556062e-234</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>3.929263611455809e-234</v>
+        <v>3.934416344936795e-234</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>3.548918609233199e-234</v>
+        <v>3.548851560904306e-234</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>3.242016762112286e-234</v>
+        <v>3.238793344831066e-234</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>2.997162108756338e-234</v>
+        <v>2.993664482450198e-234</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>2.793967956118975e-234</v>
+        <v>2.792134905345313e-234</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>2.611654950530683e-234</v>
+        <v>2.612404925657605e-234</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>2.429443738321219e-234</v>
+        <v>2.432674855527551e-234</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>2.226565078997679e-234</v>
+        <v>2.231155520183438e-234</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>1.992760680449927e-234</v>
+        <v>1.996984333000267e-234</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>1.748159944985384e-234</v>
+        <v>1.750888037786183e-234</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>1.518351679869867e-234</v>
+        <v>1.51926866732745e-234</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>1.327836954218646e-234</v>
+        <v>1.327412505448529e-234</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>1.18070866179534e-234</v>
+        <v>1.179672120953052e-234</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>1.062925032156365e-234</v>
+        <v>1.061798424928016e-234</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>9.598132482953782e-235</v>
+        <v>9.588950315471974e-235</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>8.593231408244821e-235</v>
+        <v>8.587185092990871e-235</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>7.605066877875462e-235</v>
+        <v>7.602558678967429e-235</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>6.653531019321065e-235</v>
+        <v>6.654652937471977e-235</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>5.758516147028631e-235</v>
+        <v>5.763049921707047e-235</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>4.939914575444957e-235</v>
+        <v>4.947331684874968e-235</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>4.217616720861419e-235</v>
+        <v>4.227078409846134e-235</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>3.60470709262085e-235</v>
+        <v>3.615164134773031e-235</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>3.092172297498611e-235</v>
+        <v>3.102688910343921e-235</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>2.666521851860188e-235</v>
+        <v>2.676341322848424e-235</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>2.314265272072487e-235</v>
+        <v>2.322809958577573e-235</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>2.02191207450215e-235</v>
+        <v>2.028783403822144e-235</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>1.77597177551506e-235</v>
+        <v>1.780950244872146e-235</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>1.562953980059024e-235</v>
+        <v>1.565999159024289e-235</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>1.373504621913071e-235</v>
+        <v>1.374867953975891e-235</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>1.21014538671491e-235</v>
+        <v>1.210533268562549e-235</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>1.070515268188769e-235</v>
+        <v>1.070549783271742e-235</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>9.509636963431018e-236</v>
+        <v>9.510848640001222e-236</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>8.478401011860521e-236</v>
+        <v>8.483058766440309e-236</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>7.574939127261684e-236</v>
+        <v>7.583801871002148e-236</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>6.767003271929394e-236</v>
+        <v>6.779280597725584e-236</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>6.042531859339725e-236</v>
+        <v>6.057170439255568e-236</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>5.395439805227823e-236</v>
+        <v>5.411504247787403e-236</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>4.819642942778509e-236</v>
+        <v>4.836315851431376e-236</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>4.309057105178379e-236</v>
+        <v>4.325639078299553e-236</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>3.857598125613801e-236</v>
+        <v>3.873507756503766e-236</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>3.459181837269946e-236</v>
+        <v>3.473955714154653e-236</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>3.107724073333229e-236</v>
+        <v>3.121016779364096e-236</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>2.797140666989897e-236</v>
+        <v>2.808724780243812e-236</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>2.521347451425377e-236</v>
+        <v>2.53111354490469e-236</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>2.274260259826161e-236</v>
+        <v>2.282216901458692e-236</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>2.049802826265778e-236</v>
+        <v>2.05607638193921e-236</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>1.843417131446769e-236</v>
+        <v>1.848213915799519e-236</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>1.653858646600346e-236</v>
+        <v>1.657382319185253e-236</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>1.480319943236216e-236</v>
+        <v>1.482760611806149e-236</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>1.321993592864601e-236</v>
+        <v>1.323527813372469e-236</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>1.178072166995669e-236</v>
+        <v>1.178862943594418e-236</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>1.047748237139208e-236</v>
+        <v>1.047945022181819e-236</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>9.302143748053985e-237</v>
+        <v>9.299530688448873e-237</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>8.246631515043761e-237</v>
+        <v>8.240661032937969e-237</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>7.302871387459965e-237</v>
+        <v>7.294631452384384e-237</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>6.462789080404769e-237</v>
+        <v>6.453232143890657e-237</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>5.718310308977116e-237</v>
+        <v>5.708253304556093e-237</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>5.061360788278262e-237</v>
+        <v>5.051485131482308e-237</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>4.483866233409147e-237</v>
+        <v>4.474717821770606e-237</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>3.97775235946919e-237</v>
+        <v>3.969741572520767e-237</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>3.534944881559398e-237</v>
+        <v>3.528346580834162e-237</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>3.147369514780553e-237</v>
+        <v>3.142323043811932e-237</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>2.806951974232415e-237</v>
+        <v>2.803461158554204e-237</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>2.505617975015809e-237</v>
+        <v>2.503551122162161e-237</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>2.236151032252587e-237</v>
+        <v>2.235263769601292e-237</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>1.995291194027641e-237</v>
+        <v>1.995331806498332e-237</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>1.780918480488127e-237</v>
+        <v>1.781658260860098e-237</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>1.590913017630215e-237</v>
+        <v>1.592146269360551e-237</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>1.423154931450667e-237</v>
+        <v>1.424698968674236e-237</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>1.27552434794604e-237</v>
+        <v>1.277219495475494e-237</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>1.145901393112998e-237</v>
+        <v>1.147610986438776e-237</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>1.032166192947866e-237</v>
+        <v>1.033776578238192e-237</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>9.321988734474092e-238</v>
+        <v>9.336194075482932e-238</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>8.43879560608005e-238</v>
+        <v>8.450426110432408e-238</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>7.650883804263059e-238</v>
+        <v>7.659493253974738e-238</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>6.937054588989292e-238</v>
+        <v>6.94242687285395e-238</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>6.276109220223046e-238</v>
+        <v>6.278258333812185e-238</v>
       </c>
     </row>
   </sheetData>
